--- a/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>CPMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,26 +985,29 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E14" s="3">
         <v>5800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1027,8 +1049,8 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
@@ -1039,8 +1061,8 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,32 +1097,33 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1116,8 +1142,11 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,23 +1154,23 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1189,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1220,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1222,8 +1255,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,14 +1267,14 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1260,35 +1296,38 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>2900</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1304,14 +1343,17 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,23 +1361,23 @@
         <v>-9300</v>
       </c>
       <c r="E23" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1396,11 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1490,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,23 +1502,23 @@
         <v>-9300</v>
       </c>
       <c r="E26" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1486,8 +1537,11 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1495,23 +1549,23 @@
         <v>-9300</v>
       </c>
       <c r="E27" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1530,8 +1584,11 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,7 +1784,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1750,8 +1819,11 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,23 +1831,23 @@
         <v>-9300</v>
       </c>
       <c r="E33" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -1794,8 +1866,11 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1913,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1847,23 +1925,23 @@
         <v>-9300</v>
       </c>
       <c r="E35" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -1882,57 +1960,63 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,31 +2052,32 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
@@ -2005,14 +2091,17 @@
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,13 +2144,16 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>4</v>
@@ -2072,12 +2164,12 @@
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2093,14 +2185,17 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,34 +2238,37 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2187,34 +2285,37 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -2231,13 +2332,16 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11300</v>
+        <v>4200</v>
       </c>
       <c r="E47" s="3">
         <v>11300</v>
@@ -2246,10 +2350,10 @@
         <v>11300</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
+        <v>11300</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
@@ -2257,8 +2361,8 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2275,25 +2379,28 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1600</v>
       </c>
       <c r="G48" s="3">
         <v>1600</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>1600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -2301,8 +2408,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2319,25 +2426,28 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E49" s="3">
         <v>8100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>7900</v>
       </c>
       <c r="G49" s="3">
         <v>7900</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="H49" s="3">
+        <v>7900</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -2345,8 +2455,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2471,14 +2590,14 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,29 +2661,32 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E54" s="3">
         <v>22500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>21000</v>
       </c>
       <c r="F54" s="3">
         <v>21000</v>
       </c>
       <c r="G54" s="3">
+        <v>21000</v>
+      </c>
+      <c r="H54" s="3">
         <v>10100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,37 +2748,38 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F57" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G57" s="3">
         <v>900</v>
       </c>
       <c r="H57" s="3">
+        <v>800</v>
+      </c>
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
-        <v>800</v>
-      </c>
       <c r="J57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K57" s="3">
         <v>800</v>
       </c>
       <c r="L57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M57" s="3">
         <v>700</v>
@@ -2663,29 +2793,32 @@
       <c r="P57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -2707,31 +2840,34 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G59" s="3">
+        <v>500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>400</v>
+      </c>
+      <c r="J59" s="3">
         <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -2751,28 +2887,31 @@
       <c r="P59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1000</v>
       </c>
       <c r="J60" s="3">
         <v>1000</v>
@@ -2793,28 +2932,31 @@
         <v>1000</v>
       </c>
       <c r="P60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="E61" s="3">
         <v>7000</v>
       </c>
       <c r="F61" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G61" s="3">
         <v>6800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2865,8 +3010,8 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -2877,14 +3022,17 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,28 +3169,31 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E66" s="3">
         <v>9900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1000</v>
       </c>
       <c r="J66" s="3">
         <v>1000</v>
@@ -3057,10 +3214,13 @@
         <v>1000</v>
       </c>
       <c r="P66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3174,13 +3341,13 @@
         <v>500</v>
       </c>
       <c r="E70" s="3">
+        <v>500</v>
+      </c>
+      <c r="F70" s="3">
         <v>300</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>200</v>
-      </c>
-      <c r="G70" s="3">
-        <v>100</v>
       </c>
       <c r="H70" s="3">
         <v>100</v>
@@ -3189,7 +3356,7 @@
         <v>100</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,31 +3423,34 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-48100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-38800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-38100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-37000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-35100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-34000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-33900</v>
       </c>
       <c r="K72" s="3">
         <v>-33900</v>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3">
         <v>-33900</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-33900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,28 +3611,31 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E76" s="3">
         <v>12100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-1000</v>
       </c>
       <c r="J76" s="3">
         <v>-1000</v>
@@ -3471,10 +3656,13 @@
         <v>-1000</v>
       </c>
       <c r="P76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3705,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3575,23 +3769,23 @@
         <v>-9300</v>
       </c>
       <c r="E81" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -3610,8 +3804,11 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3642,8 +3840,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -3654,8 +3852,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,29 +4105,32 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,31 +4173,32 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4095,17 +4324,17 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,32 +4566,35 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4368,23 +4613,26 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
@@ -4394,8 +4642,8 @@
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4412,29 +4660,32 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>CPMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,32 +1022,38 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F14" s="3">
         <v>7000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>5800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1052,11 +1098,11 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -1064,11 +1110,11 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,38 +1150,40 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F17" s="3">
         <v>8000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>900</v>
       </c>
       <c r="H17" s="3">
         <v>700</v>
       </c>
       <c r="I17" s="3">
+        <v>900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>700</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1145,8 +1199,14 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,29 +1214,29 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-6400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-900</v>
       </c>
       <c r="H18" s="3">
         <v>-700</v>
       </c>
       <c r="I18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1192,8 +1252,14 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,14 +1288,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1258,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,20 +1341,20 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-6400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1299,41 +1373,47 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>700</v>
+      </c>
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>2900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1346,44 +1426,50 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-9300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-9300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1900</v>
       </c>
       <c r="I23" s="3">
         <v>-1100</v>
       </c>
       <c r="J23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1399,8 +1485,14 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,38 +1591,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-9300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-9300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1900</v>
       </c>
       <c r="I26" s="3">
         <v>-1100</v>
       </c>
       <c r="J26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1540,38 +1644,44 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-9300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-9300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1900</v>
       </c>
       <c r="I27" s="3">
         <v>-1100</v>
       </c>
       <c r="J27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1587,8 +1697,14 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,14 +1924,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1822,38 +1962,44 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-9300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-9300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1900</v>
       </c>
       <c r="I33" s="3">
         <v>-1100</v>
       </c>
       <c r="J33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -1869,8 +2015,14 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,38 +2068,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-9300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-9300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1900</v>
       </c>
       <c r="I35" s="3">
         <v>-1100</v>
       </c>
       <c r="J35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -1963,60 +2121,72 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2062,28 +2236,28 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>200</v>
+      </c>
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
@@ -2094,14 +2268,20 @@
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,19 +2327,25 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -2167,15 +2353,15 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2188,14 +2374,20 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,40 +2433,46 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2288,40 +2486,46 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
+      <c r="M46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -2335,40 +2539,46 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E47" s="3">
         <v>4200</v>
       </c>
-      <c r="E47" s="3">
-        <v>11300</v>
-      </c>
       <c r="F47" s="3">
-        <v>11300</v>
+        <v>4200</v>
       </c>
       <c r="G47" s="3">
         <v>11300</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+        <v>11300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2382,40 +2592,46 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F48" s="3">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="G48" s="3">
         <v>1600</v>
       </c>
       <c r="H48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I48" s="3">
         <v>1600</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>1600</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2429,40 +2645,46 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F49" s="3">
         <v>8200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>8100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>8000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>7900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>7900</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,40 +2804,46 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2673,26 +2925,26 @@
         <v>16000</v>
       </c>
       <c r="E54" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G54" s="3">
         <v>22500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>21000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>21000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -2711,8 +2963,14 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,43 +3009,45 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>900</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1000</v>
       </c>
       <c r="G57" s="3">
         <v>900</v>
       </c>
       <c r="H57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>900</v>
+      </c>
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>700</v>
-      </c>
-      <c r="N57" s="3">
-        <v>700</v>
       </c>
       <c r="O57" s="3">
         <v>700</v>
@@ -2796,35 +3058,41 @@
       <c r="Q57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>700</v>
+      </c>
+      <c r="S57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2100</v>
+        <v>2900</v>
       </c>
       <c r="E58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -2843,37 +3111,43 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800</v>
+        <v>2100</v>
       </c>
       <c r="E59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -2890,34 +3164,40 @@
       <c r="Q59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>200</v>
+      </c>
+      <c r="S59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4000</v>
+        <v>6400</v>
       </c>
       <c r="E60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G60" s="3">
         <v>2900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3800</v>
       </c>
       <c r="I60" s="3">
         <v>1900</v>
       </c>
       <c r="J60" s="3">
-        <v>1000</v>
+        <v>3800</v>
       </c>
       <c r="K60" s="3">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="L60" s="3">
         <v>1000</v>
@@ -2935,34 +3215,40 @@
         <v>1000</v>
       </c>
       <c r="Q60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="E61" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F61" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G61" s="3">
         <v>7000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>7000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>6800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>6600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2984,40 +3270,46 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -3025,14 +3317,20 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,34 +3482,40 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F66" s="3">
         <v>11200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>10400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1000</v>
       </c>
       <c r="L66" s="3">
         <v>1000</v>
@@ -3217,10 +3533,16 @@
         <v>1000</v>
       </c>
       <c r="Q66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3344,25 +3680,25 @@
         <v>500</v>
       </c>
       <c r="F70" s="3">
+        <v>500</v>
+      </c>
+      <c r="G70" s="3">
+        <v>500</v>
+      </c>
+      <c r="H70" s="3">
         <v>300</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>200</v>
-      </c>
-      <c r="H70" s="3">
-        <v>100</v>
-      </c>
-      <c r="I70" s="3">
-        <v>100</v>
       </c>
       <c r="J70" s="3">
         <v>100</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,37 +3768,43 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-57400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-48100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-38800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-38100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-37000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-35100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-34000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-33900</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-33900</v>
       </c>
       <c r="M72" s="3">
         <v>-33900</v>
@@ -3473,8 +3821,14 @@
       <c r="Q72" s="3">
         <v>-33900</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="S72" s="3">
+        <v>-33900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,34 +3980,40 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>700</v>
+      </c>
+      <c r="F76" s="3">
         <v>4300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>12100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>11400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>12000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-1000</v>
       </c>
       <c r="L76" s="3">
         <v>-1000</v>
@@ -3659,10 +4031,16 @@
         <v>-1000</v>
       </c>
       <c r="Q76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,90 +4086,102 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-9300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-9300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1900</v>
       </c>
       <c r="I81" s="3">
         <v>-1100</v>
       </c>
       <c r="J81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -3807,8 +4197,14 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3843,11 +4241,11 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -3855,11 +4253,11 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,34 +4536,40 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-700</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4155,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,19 +4614,21 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -4200,11 +4642,11 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,32 +4769,38 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,38 +5055,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4616,40 +5108,46 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4663,35 +5161,41 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4708,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>CPMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,35 +1045,38 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1104,8 +1127,8 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1116,8 +1139,8 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,41 +1178,42 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,32 +1244,32 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,17 +1322,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,23 +1378,23 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1379,44 +1416,47 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1432,47 +1472,50 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-9300</v>
       </c>
       <c r="G23" s="3">
         <v>-9300</v>
       </c>
       <c r="H23" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,41 +1646,44 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-9300</v>
       </c>
       <c r="G26" s="3">
         <v>-9300</v>
       </c>
       <c r="H26" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1650,41 +1702,44 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-9300</v>
       </c>
       <c r="G27" s="3">
         <v>-9300</v>
       </c>
       <c r="H27" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,17 +1994,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1968,41 +2038,44 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-9300</v>
       </c>
       <c r="G33" s="3">
         <v>-9300</v>
       </c>
       <c r="H33" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,41 +2150,44 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-9300</v>
       </c>
       <c r="G35" s="3">
         <v>-9300</v>
       </c>
       <c r="H35" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,40 +2313,41 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
@@ -2274,14 +2361,17 @@
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2347,8 +2440,8 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -2359,12 +2452,12 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2380,14 +2473,17 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2451,31 +2550,31 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2492,43 +2591,46 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2554,13 +2659,13 @@
         <v>6700</v>
       </c>
       <c r="E47" s="3">
-        <v>4200</v>
+        <v>6700</v>
       </c>
       <c r="F47" s="3">
         <v>4200</v>
       </c>
       <c r="G47" s="3">
-        <v>11300</v>
+        <v>4200</v>
       </c>
       <c r="H47" s="3">
         <v>11300</v>
@@ -2569,10 +2674,10 @@
         <v>11300</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+        <v>11300</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
@@ -2580,8 +2685,8 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,25 +2715,25 @@
         <v>1600</v>
       </c>
       <c r="E48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1600</v>
       </c>
       <c r="J48" s="3">
         <v>1600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>1600</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -2633,8 +2741,8 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2651,34 +2759,37 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E49" s="3">
         <v>7800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>7900</v>
       </c>
       <c r="J49" s="3">
         <v>7900</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>7900</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
@@ -2686,8 +2797,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2836,17 +2956,17 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,38 +3039,41 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E54" s="3">
         <v>16000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>21000</v>
       </c>
       <c r="I54" s="3">
         <v>21000</v>
       </c>
       <c r="J54" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K54" s="3">
         <v>10100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,46 +3141,47 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>600</v>
       </c>
       <c r="L57" s="3">
         <v>600</v>
       </c>
       <c r="M57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N57" s="3">
         <v>800</v>
       </c>
       <c r="O57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P57" s="3">
         <v>700</v>
@@ -3064,38 +3195,41 @@
       <c r="S57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E58" s="3">
         <v>2900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
@@ -3117,40 +3251,43 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>400</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
       </c>
       <c r="L59" s="3">
+        <v>400</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
@@ -3170,37 +3307,40 @@
       <c r="S59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E60" s="3">
         <v>6400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1000</v>
       </c>
       <c r="M60" s="3">
         <v>1000</v>
@@ -3221,37 +3361,40 @@
         <v>1000</v>
       </c>
       <c r="S60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E61" s="3">
         <v>6900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5500</v>
-      </c>
-      <c r="G61" s="3">
-        <v>7000</v>
       </c>
       <c r="H61" s="3">
         <v>7000</v>
       </c>
       <c r="I61" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J61" s="3">
         <v>6800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3276,13 +3419,16 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
@@ -3302,8 +3448,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -3323,14 +3469,17 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,37 +3643,40 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E66" s="3">
         <v>13300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1000</v>
       </c>
       <c r="M66" s="3">
         <v>1000</v>
@@ -3539,10 +3697,13 @@
         <v>1000</v>
       </c>
       <c r="S66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3686,13 +3854,13 @@
         <v>500</v>
       </c>
       <c r="H70" s="3">
+        <v>500</v>
+      </c>
+      <c r="I70" s="3">
         <v>300</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>200</v>
-      </c>
-      <c r="J70" s="3">
-        <v>100</v>
       </c>
       <c r="K70" s="3">
         <v>100</v>
@@ -3701,7 +3869,7 @@
         <v>100</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,40 +3945,43 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-63100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-61700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-57400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-48100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-38800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-38100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-37000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-35100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-34000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-33900</v>
       </c>
       <c r="N72" s="3">
         <v>-33900</v>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3">
         <v>-33900</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-33900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,37 +4169,40 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>900</v>
+      </c>
+      <c r="E76" s="3">
         <v>2200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-1000</v>
       </c>
       <c r="M76" s="3">
         <v>-1000</v>
@@ -4037,10 +4223,13 @@
         <v>-1000</v>
       </c>
       <c r="S76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,99 +4281,105 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-9300</v>
       </c>
       <c r="G81" s="3">
         <v>-9300</v>
       </c>
       <c r="H81" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4247,8 +4446,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -4259,8 +4458,8 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,38 +4756,41 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,11 +4848,11 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -4648,8 +4869,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,17 +5002,20 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -4793,17 +5023,17 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,41 +5304,44 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5114,32 +5360,35 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
       </c>
       <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
@@ -5149,8 +5398,8 @@
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5167,38 +5416,41 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>CPMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,32 +1096,32 @@
         <v>300</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="F14" s="3">
+        <v>300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>7000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>5800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1130,11 +1175,11 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1142,11 +1187,11 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,47 +1230,49 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>900</v>
       </c>
       <c r="K17" s="3">
         <v>700</v>
       </c>
       <c r="L17" s="3">
+        <v>900</v>
+      </c>
+      <c r="M17" s="3">
+        <v>700</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1235,8 +1288,14 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,38 +1303,38 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-8000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-6400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-900</v>
       </c>
       <c r="K18" s="3">
         <v>-700</v>
       </c>
       <c r="L18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1291,8 +1350,14 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,23 +1389,23 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="F20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1369,8 +1436,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,29 +1451,29 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-7900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-6400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1419,14 +1492,20 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,32 +1516,32 @@
         <v>600</v>
       </c>
       <c r="F22" s="3">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>600</v>
+      </c>
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>900</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1475,53 +1554,59 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-9300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-9300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1900</v>
       </c>
       <c r="L23" s="3">
         <v>-1100</v>
       </c>
       <c r="M23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1537,8 +1622,14 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,47 +1746,53 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-9300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-9300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1900</v>
       </c>
       <c r="L26" s="3">
         <v>-1100</v>
       </c>
       <c r="M26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1705,47 +1808,53 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-9300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-9300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1900</v>
       </c>
       <c r="L27" s="3">
         <v>-1100</v>
       </c>
       <c r="M27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1761,8 +1870,14 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,23 +2133,23 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="F32" s="3">
+        <v>800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2041,47 +2180,53 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-9300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-9300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1900</v>
       </c>
       <c r="L33" s="3">
         <v>-1100</v>
       </c>
       <c r="M33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -2097,8 +2242,14 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,47 +2304,53 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-9300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-9300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1900</v>
       </c>
       <c r="L35" s="3">
         <v>-1100</v>
       </c>
       <c r="M35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2209,69 +2366,81 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,46 +2485,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>200</v>
-      </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>200</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>200</v>
+      </c>
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
@@ -2364,14 +2537,20 @@
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2443,11 +2628,11 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -2455,15 +2640,15 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2476,14 +2661,20 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,49 +2729,55 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2594,49 +2791,55 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
+      <c r="P46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -2650,49 +2853,55 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="E47" s="3">
         <v>6700</v>
       </c>
       <c r="F47" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G47" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H47" s="3">
         <v>4200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>4200</v>
-      </c>
-      <c r="H47" s="3">
-        <v>11300</v>
-      </c>
-      <c r="I47" s="3">
-        <v>11300</v>
       </c>
       <c r="J47" s="3">
         <v>11300</v>
       </c>
       <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
+        <v>11300</v>
+      </c>
+      <c r="L47" s="3">
+        <v>11300</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2718,37 +2933,37 @@
         <v>1600</v>
       </c>
       <c r="F48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H48" s="3">
         <v>1500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1700</v>
       </c>
       <c r="J48" s="3">
         <v>1600</v>
       </c>
       <c r="K48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L48" s="3">
         <v>1600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>1600</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2762,49 +2977,55 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>7900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>7800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>7500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>8200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>8100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>8000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>7900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>7900</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2959,20 +3198,20 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,44 +3287,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F54" s="3">
         <v>16400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>16000</v>
-      </c>
-      <c r="F54" s="3">
-        <v>13300</v>
       </c>
       <c r="G54" s="3">
         <v>16000</v>
       </c>
       <c r="H54" s="3">
+        <v>13300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J54" s="3">
         <v>22500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>21000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>21000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -3098,8 +3349,14 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,52 +3401,54 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1000</v>
       </c>
       <c r="J57" s="3">
         <v>900</v>
       </c>
       <c r="K57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L57" s="3">
+        <v>900</v>
+      </c>
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
-      </c>
-      <c r="P57" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>700</v>
       </c>
       <c r="R57" s="3">
         <v>700</v>
@@ -3198,44 +3459,50 @@
       <c r="T57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>700</v>
+      </c>
+      <c r="V57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
@@ -3254,46 +3521,52 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -3310,43 +3583,49 @@
       <c r="T59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>200</v>
+      </c>
+      <c r="V59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F60" s="3">
         <v>7800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K60" s="3">
-        <v>3800</v>
       </c>
       <c r="L60" s="3">
         <v>1900</v>
       </c>
       <c r="M60" s="3">
-        <v>1000</v>
+        <v>3800</v>
       </c>
       <c r="N60" s="3">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="O60" s="3">
         <v>1000</v>
@@ -3364,43 +3643,49 @@
         <v>1000</v>
       </c>
       <c r="T60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>7200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>6900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>6700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>7000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>7000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>6800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>6600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3422,19 +3707,25 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -3451,20 +3742,20 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -3472,14 +3763,20 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,43 +3955,49 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F66" s="3">
         <v>15000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>13300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>12000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1000</v>
       </c>
       <c r="O66" s="3">
         <v>1000</v>
@@ -3700,10 +4015,16 @@
         <v>1000</v>
       </c>
       <c r="T66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3857,25 +4192,25 @@
         <v>500</v>
       </c>
       <c r="I70" s="3">
+        <v>500</v>
+      </c>
+      <c r="J70" s="3">
+        <v>500</v>
+      </c>
+      <c r="K70" s="3">
         <v>300</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>200</v>
-      </c>
-      <c r="K70" s="3">
-        <v>100</v>
-      </c>
-      <c r="L70" s="3">
-        <v>100</v>
       </c>
       <c r="M70" s="3">
         <v>100</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,46 +4289,52 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-76100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-77300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-65800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-63100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-61700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-57400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-48100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-38800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-38100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-37000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-35100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-34000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-33900</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-33900</v>
       </c>
       <c r="P72" s="3">
         <v>-33900</v>
@@ -4004,8 +4351,14 @@
       <c r="T72" s="3">
         <v>-33900</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="V72" s="3">
+        <v>-33900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,43 +4537,49 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="F76" s="3">
         <v>900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>12100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>11400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>12000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1000</v>
       </c>
       <c r="O76" s="3">
         <v>-1000</v>
@@ -4226,10 +4597,16 @@
         <v>-1000</v>
       </c>
       <c r="T76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,108 +4661,120 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-9300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-9300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1900</v>
       </c>
       <c r="L81" s="3">
         <v>-1100</v>
       </c>
       <c r="M81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -4401,8 +4790,14 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4449,11 +4846,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -4461,11 +4858,11 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,43 +5186,49 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-700</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,13 +5276,15 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -4851,14 +5292,14 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -4872,11 +5313,11 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5014,32 +5473,32 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,38 +5807,38 @@
         <v>500</v>
       </c>
       <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>500</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5363,49 +5854,55 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5419,44 +5916,50 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-200</v>
       </c>
       <c r="H102" s="3">
         <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>CPMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,44 +1104,47 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1181,8 +1204,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1193,8 +1216,8 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,50 +1258,51 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1294,8 +1321,11 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,41 +1333,41 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-9000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,26 +1423,26 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,32 +1488,32 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-10900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1498,53 +1535,56 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2900</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>900</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1560,56 +1600,59 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-9300</v>
       </c>
       <c r="J23" s="3">
         <v>-9300</v>
       </c>
       <c r="K23" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,50 +1801,53 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-9300</v>
       </c>
       <c r="J26" s="3">
         <v>-9300</v>
       </c>
       <c r="K26" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -1814,50 +1866,53 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-9300</v>
       </c>
       <c r="J27" s="3">
         <v>-9300</v>
       </c>
       <c r="K27" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,26 +2203,26 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F32" s="3">
         <v>1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2186,50 +2256,53 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-9300</v>
       </c>
       <c r="J33" s="3">
         <v>-9300</v>
       </c>
       <c r="K33" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,50 +2386,53 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-9300</v>
       </c>
       <c r="J35" s="3">
         <v>-9300</v>
       </c>
       <c r="K35" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,49 +2573,50 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
@@ -2543,14 +2630,17 @@
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
+      <c r="U41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2634,8 +2727,8 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2646,12 +2739,12 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2667,14 +2760,17 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2744,11 +2843,11 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -2756,31 +2855,31 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2797,52 +2896,55 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2868,7 +2973,7 @@
         <v>6800</v>
       </c>
       <c r="E47" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="F47" s="3">
         <v>6700</v>
@@ -2877,13 +2982,13 @@
         <v>6700</v>
       </c>
       <c r="H47" s="3">
-        <v>4200</v>
+        <v>6700</v>
       </c>
       <c r="I47" s="3">
         <v>4200</v>
       </c>
       <c r="J47" s="3">
-        <v>11300</v>
+        <v>4200</v>
       </c>
       <c r="K47" s="3">
         <v>11300</v>
@@ -2892,10 +2997,10 @@
         <v>11300</v>
       </c>
       <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
+        <v>11300</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
@@ -2903,8 +3008,8 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2939,25 +3047,25 @@
         <v>1600</v>
       </c>
       <c r="H48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I48" s="3">
         <v>1500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1600</v>
       </c>
       <c r="M48" s="3">
         <v>1600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>1600</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -2965,8 +3073,8 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2983,43 +3091,46 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>7900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>8200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>7900</v>
       </c>
       <c r="M49" s="3">
         <v>7900</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>7900</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
@@ -3027,8 +3138,8 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3204,17 +3324,17 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3302,38 +3428,38 @@
         <v>8800</v>
       </c>
       <c r="E54" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F54" s="3">
         <v>8700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>21000</v>
       </c>
       <c r="L54" s="3">
         <v>21000</v>
       </c>
       <c r="M54" s="3">
+        <v>21000</v>
+      </c>
+      <c r="N54" s="3">
         <v>10100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,55 +3533,56 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
-      </c>
-      <c r="N57" s="3">
-        <v>600</v>
       </c>
       <c r="O57" s="3">
         <v>600</v>
       </c>
       <c r="P57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q57" s="3">
         <v>800</v>
       </c>
       <c r="R57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="S57" s="3">
         <v>700</v>
@@ -3465,47 +3596,50 @@
       <c r="V57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E58" s="3">
         <v>10300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
@@ -3527,49 +3661,52 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>400</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
       </c>
       <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
@@ -3589,46 +3726,49 @@
       <c r="V59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E60" s="3">
         <v>15600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1000</v>
       </c>
       <c r="P60" s="3">
         <v>1000</v>
@@ -3649,10 +3789,13 @@
         <v>1000</v>
       </c>
       <c r="V60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3663,32 +3806,32 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>7200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5500</v>
-      </c>
-      <c r="J61" s="3">
-        <v>7000</v>
       </c>
       <c r="K61" s="3">
         <v>7000</v>
       </c>
       <c r="L61" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M61" s="3">
         <v>6800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3724,11 +3870,11 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -3748,8 +3894,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3757,8 +3903,8 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -3769,14 +3915,17 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,46 +4116,49 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E66" s="3">
         <v>15600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1000</v>
       </c>
       <c r="P66" s="3">
         <v>1000</v>
@@ -4021,10 +4179,13 @@
         <v>1000</v>
       </c>
       <c r="V66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4198,13 +4366,13 @@
         <v>500</v>
       </c>
       <c r="K70" s="3">
+        <v>500</v>
+      </c>
+      <c r="L70" s="3">
         <v>300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>200</v>
-      </c>
-      <c r="M70" s="3">
-        <v>100</v>
       </c>
       <c r="N70" s="3">
         <v>100</v>
@@ -4213,7 +4381,7 @@
         <v>100</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,49 +4466,52 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-77800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-76100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-77300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-65800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-63100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-61700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-57400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-48100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-38800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-38100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-37000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-35100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-34000</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-33900</v>
       </c>
       <c r="Q72" s="3">
         <v>-33900</v>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3">
         <v>-33900</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-33900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,46 +4726,49 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-7400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-9300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1000</v>
       </c>
       <c r="P76" s="3">
         <v>-1000</v>
@@ -4603,10 +4789,13 @@
         <v>-1000</v>
       </c>
       <c r="V76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,117 +4856,123 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-9300</v>
       </c>
       <c r="J81" s="3">
         <v>-9300</v>
       </c>
       <c r="K81" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4852,8 +5051,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -4864,8 +5063,8 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,47 +5406,50 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,16 +5498,17 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -5298,11 +5519,11 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -5319,8 +5540,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5473,17 +5703,17 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5491,17 +5721,17 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,50 +6041,53 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5860,41 +6106,44 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>100</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
       </c>
       <c r="I101" s="3">
+        <v>100</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
@@ -5904,8 +6153,8 @@
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5922,47 +6171,50 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>CPMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,47 +1124,50 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3">
+        <v>700</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1207,8 +1230,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1219,8 +1242,8 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,53 +1285,54 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>9000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>800</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
@@ -1324,8 +1351,11 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,44 +1363,44 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,29 +1457,29 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,35 +1525,35 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1538,56 +1575,59 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>900</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1603,59 +1643,62 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-9300</v>
       </c>
       <c r="K23" s="3">
         <v>-9300</v>
       </c>
       <c r="L23" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,53 +1853,56 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-1000</v>
       </c>
       <c r="E26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-9300</v>
       </c>
       <c r="K26" s="3">
         <v>-9300</v>
       </c>
       <c r="L26" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -1869,53 +1921,56 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-1000</v>
       </c>
       <c r="E27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-9300</v>
       </c>
       <c r="K27" s="3">
         <v>-9300</v>
       </c>
       <c r="L27" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,29 +2273,29 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2259,53 +2329,56 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-1000</v>
       </c>
       <c r="E33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-9300</v>
       </c>
       <c r="K33" s="3">
         <v>-9300</v>
       </c>
       <c r="L33" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,53 +2465,56 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-1000</v>
       </c>
       <c r="E35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-9300</v>
       </c>
       <c r="K35" s="3">
         <v>-9300</v>
       </c>
       <c r="L35" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2583,43 +2670,43 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>4</v>
@@ -2633,14 +2720,17 @@
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
+      <c r="V41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2730,8 +2823,8 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2742,12 +2835,12 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2763,14 +2856,17 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,23 +2930,26 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
       </c>
       <c r="F45" s="3">
+        <v>400</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2858,31 +2957,31 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2899,55 +2998,58 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0</v>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2976,7 +3081,7 @@
         <v>6800</v>
       </c>
       <c r="F47" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="G47" s="3">
         <v>6700</v>
@@ -2985,13 +3090,13 @@
         <v>6700</v>
       </c>
       <c r="I47" s="3">
-        <v>4200</v>
+        <v>6700</v>
       </c>
       <c r="J47" s="3">
         <v>4200</v>
       </c>
       <c r="K47" s="3">
-        <v>11300</v>
+        <v>4200</v>
       </c>
       <c r="L47" s="3">
         <v>11300</v>
@@ -3000,10 +3105,10 @@
         <v>11300</v>
       </c>
       <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
+        <v>11300</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
@@ -3011,8 +3116,8 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3029,13 +3134,16 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>1600</v>
@@ -3050,25 +3158,25 @@
         <v>1600</v>
       </c>
       <c r="I48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J48" s="3">
         <v>1500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1700</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1600</v>
       </c>
       <c r="N48" s="3">
         <v>1600</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>1600</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -3076,8 +3184,8 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3105,35 +3216,35 @@
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>7900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>7900</v>
       </c>
       <c r="N49" s="3">
         <v>7900</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
+      <c r="O49" s="3">
+        <v>7900</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
@@ -3141,8 +3252,8 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3327,17 +3447,17 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,50 +3542,53 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8800</v>
+        <v>7000</v>
       </c>
       <c r="E54" s="3">
         <v>8800</v>
       </c>
       <c r="F54" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G54" s="3">
         <v>8700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>21000</v>
       </c>
       <c r="M54" s="3">
         <v>21000</v>
       </c>
       <c r="N54" s="3">
+        <v>21000</v>
+      </c>
+      <c r="O54" s="3">
         <v>10100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,58 +3664,59 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
-      </c>
-      <c r="O57" s="3">
-        <v>600</v>
       </c>
       <c r="P57" s="3">
         <v>600</v>
       </c>
       <c r="Q57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="R57" s="3">
         <v>800</v>
       </c>
       <c r="S57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T57" s="3">
         <v>700</v>
@@ -3599,50 +3730,53 @@
       <c r="W57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E58" s="3">
         <v>10200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
@@ -3664,52 +3798,55 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
       </c>
       <c r="P59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
@@ -3729,49 +3866,52 @@
       <c r="W59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E60" s="3">
         <v>15200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1000</v>
       </c>
       <c r="Q60" s="3">
         <v>1000</v>
@@ -3792,10 +3932,13 @@
         <v>1000</v>
       </c>
       <c r="W60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3809,32 +3952,32 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>7200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5500</v>
-      </c>
-      <c r="K61" s="3">
-        <v>7000</v>
       </c>
       <c r="L61" s="3">
         <v>7000</v>
       </c>
       <c r="M61" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N61" s="3">
         <v>6800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3873,11 +4019,11 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -3897,8 +4043,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3906,8 +4052,8 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -3918,14 +4064,17 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,49 +4274,52 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E66" s="3">
         <v>15200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1000</v>
       </c>
       <c r="Q66" s="3">
         <v>1000</v>
@@ -4182,10 +4340,13 @@
         <v>1000</v>
       </c>
       <c r="W66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4369,13 +4537,13 @@
         <v>500</v>
       </c>
       <c r="L70" s="3">
+        <v>500</v>
+      </c>
+      <c r="M70" s="3">
         <v>300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>200</v>
-      </c>
-      <c r="N70" s="3">
-        <v>100</v>
       </c>
       <c r="O70" s="3">
         <v>100</v>
@@ -4384,7 +4552,7 @@
         <v>100</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,52 +4640,55 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-77800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-76100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-77300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-65800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-63100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-61700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-57400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-48100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-38800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-38100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-37000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-35100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-34000</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-33900</v>
       </c>
       <c r="R72" s="3">
         <v>-33900</v>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3">
         <v>-33900</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-33900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,49 +4912,52 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-7400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-9300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q76" s="3">
         <v>-1000</v>
@@ -4792,10 +4978,13 @@
         <v>-1000</v>
       </c>
       <c r="W76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="X76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,123 +5048,129 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-1000</v>
       </c>
       <c r="E81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-9300</v>
       </c>
       <c r="K81" s="3">
         <v>-9300</v>
       </c>
       <c r="L81" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5054,8 +5253,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -5066,8 +5265,8 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,50 +5623,53 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5510,8 +5731,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -5522,11 +5743,11 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -5543,8 +5764,8 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,29 +5921,32 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5724,17 +5954,17 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,53 +6287,56 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6118,35 +6367,35 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>100</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
       </c>
       <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
@@ -6156,8 +6405,8 @@
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -6174,50 +6423,53 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
   <si>
     <t>CPMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,50 +1143,53 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1233,8 +1255,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
@@ -1245,8 +1267,8 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,56 +1311,57 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1380,11 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,47 +1392,47 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1422,8 +1451,11 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,32 +1490,32 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1516,8 +1549,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,38 +1561,38 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-10900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1578,59 +1614,62 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2900</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>1200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>900</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1646,62 +1685,65 @@
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-9300</v>
       </c>
       <c r="L23" s="3">
         <v>-9300</v>
       </c>
       <c r="M23" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
@@ -1720,8 +1762,11 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,56 +1904,59 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-9300</v>
       </c>
       <c r="L26" s="3">
         <v>-9300</v>
       </c>
       <c r="M26" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
@@ -1924,56 +1975,59 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-9300</v>
       </c>
       <c r="L27" s="3">
         <v>-9300</v>
       </c>
       <c r="M27" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
@@ -1992,8 +2046,11 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,32 +2342,32 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2332,56 +2401,59 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-9300</v>
       </c>
       <c r="L33" s="3">
         <v>-9300</v>
       </c>
       <c r="M33" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
@@ -2400,8 +2472,11 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,56 +2543,59 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-9300</v>
       </c>
       <c r="L35" s="3">
         <v>-9300</v>
       </c>
       <c r="M35" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
@@ -2536,81 +2614,87 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,55 +2746,56 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
+      <c r="R41" s="3">
+        <v>0</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>4</v>
@@ -2723,14 +2809,17 @@
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
+      <c r="W41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2826,8 +2918,8 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2838,12 +2930,12 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2859,14 +2951,17 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,26 +3028,29 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>400</v>
       </c>
       <c r="F45" s="3">
         <v>400</v>
       </c>
       <c r="G45" s="3">
+        <v>400</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2960,31 +3058,31 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3001,58 +3099,61 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
@@ -3069,13 +3170,16 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6800</v>
+        <v>100</v>
       </c>
       <c r="E47" s="3">
         <v>6800</v>
@@ -3084,7 +3188,7 @@
         <v>6800</v>
       </c>
       <c r="G47" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="H47" s="3">
         <v>6700</v>
@@ -3093,13 +3197,13 @@
         <v>6700</v>
       </c>
       <c r="J47" s="3">
-        <v>4200</v>
+        <v>6700</v>
       </c>
       <c r="K47" s="3">
         <v>4200</v>
       </c>
       <c r="L47" s="3">
-        <v>11300</v>
+        <v>4200</v>
       </c>
       <c r="M47" s="3">
         <v>11300</v>
@@ -3108,10 +3212,10 @@
         <v>11300</v>
       </c>
       <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
+        <v>11300</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
@@ -3119,8 +3223,8 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>1600</v>
@@ -3161,25 +3268,25 @@
         <v>1600</v>
       </c>
       <c r="J48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1700</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1600</v>
       </c>
       <c r="O48" s="3">
         <v>1600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>1600</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -3187,8 +3294,8 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3219,35 +3329,35 @@
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>7900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>7900</v>
       </c>
       <c r="O49" s="3">
         <v>7900</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
+      <c r="P49" s="3">
+        <v>7900</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
@@ -3255,8 +3365,8 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3450,17 +3569,17 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,53 +3667,56 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
         <v>7000</v>
-      </c>
-      <c r="E54" s="3">
-        <v>8800</v>
       </c>
       <c r="F54" s="3">
         <v>8800</v>
       </c>
       <c r="G54" s="3">
+        <v>8800</v>
+      </c>
+      <c r="H54" s="3">
         <v>8700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>21000</v>
       </c>
       <c r="N54" s="3">
         <v>21000</v>
       </c>
       <c r="O54" s="3">
+        <v>21000</v>
+      </c>
+      <c r="P54" s="3">
         <v>10100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,52 +3804,52 @@
         <v>3100</v>
       </c>
       <c r="E57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F57" s="3">
         <v>4100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
-      </c>
-      <c r="P57" s="3">
-        <v>600</v>
       </c>
       <c r="Q57" s="3">
         <v>600</v>
       </c>
       <c r="R57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="S57" s="3">
         <v>800</v>
       </c>
       <c r="T57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="U57" s="3">
         <v>700</v>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3742,44 +3875,44 @@
         <v>9000</v>
       </c>
       <c r="E58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F58" s="3">
         <v>10200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>900</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
@@ -3801,55 +3934,58 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>400</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
       </c>
       <c r="Q59" s="3">
+        <v>400</v>
+      </c>
+      <c r="R59" s="3">
         <v>300</v>
-      </c>
-      <c r="R59" s="3">
-        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
@@ -3869,52 +4005,55 @@
       <c r="X59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E60" s="3">
         <v>13300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1000</v>
       </c>
       <c r="R60" s="3">
         <v>1000</v>
@@ -3935,10 +4074,13 @@
         <v>1000</v>
       </c>
       <c r="X60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3955,32 +4097,32 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>7200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5500</v>
-      </c>
-      <c r="L61" s="3">
-        <v>7000</v>
       </c>
       <c r="M61" s="3">
         <v>7000</v>
       </c>
       <c r="N61" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O61" s="3">
         <v>6800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4022,11 +4167,11 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -4046,8 +4191,8 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4055,8 +4200,8 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -4067,14 +4212,17 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,52 +4431,55 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E66" s="3">
         <v>13300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1000</v>
       </c>
       <c r="R66" s="3">
         <v>1000</v>
@@ -4343,10 +4500,13 @@
         <v>1000</v>
       </c>
       <c r="X66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4540,13 +4707,13 @@
         <v>500</v>
       </c>
       <c r="M70" s="3">
+        <v>500</v>
+      </c>
+      <c r="N70" s="3">
         <v>300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>200</v>
-      </c>
-      <c r="O70" s="3">
-        <v>100</v>
       </c>
       <c r="P70" s="3">
         <v>100</v>
@@ -4555,7 +4722,7 @@
         <v>100</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,55 +4813,58 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-86200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-78800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-77800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-76100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-77300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-65800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-63100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-61700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-57400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-48100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-38800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-38100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-37000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-35100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-34000</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-33900</v>
       </c>
       <c r="S72" s="3">
         <v>-33900</v>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3">
         <v>-33900</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-33900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,52 +5097,55 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-7400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-9300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-1000</v>
       </c>
       <c r="R76" s="3">
         <v>-1000</v>
@@ -4981,10 +5166,13 @@
         <v>-1000</v>
       </c>
       <c r="X76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,129 +5239,135 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-9300</v>
       </c>
       <c r="L81" s="3">
         <v>-9300</v>
       </c>
       <c r="M81" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
@@ -5192,8 +5386,11 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5256,8 +5454,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
@@ -5268,8 +5466,8 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,53 +5839,56 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5734,8 +5954,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -5746,11 +5966,11 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -5767,8 +5987,8 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,32 +6150,35 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>500</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5957,17 +6186,17 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,56 +6532,59 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -6358,47 +6603,50 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>100</v>
       </c>
       <c r="J101" s="3">
         <v>100</v>
       </c>
       <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
@@ -6408,8 +6656,8 @@
       <c r="R101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -6426,53 +6674,56 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>CPMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,53 +1163,56 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1217,13 +1237,16 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1258,8 +1281,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
@@ -1270,8 +1293,8 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,59 +1338,60 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
@@ -1383,8 +1410,11 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,50 +1422,50 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
@@ -1454,8 +1484,11 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1490,35 +1524,35 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1552,8 +1586,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,41 +1598,41 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1617,62 +1654,65 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2900</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>900</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1688,65 +1728,68 @@
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-9300</v>
       </c>
       <c r="M23" s="3">
         <v>-9300</v>
       </c>
       <c r="N23" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
@@ -1765,8 +1808,11 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,59 +1956,62 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-9300</v>
       </c>
       <c r="M26" s="3">
         <v>-9300</v>
       </c>
       <c r="N26" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
@@ -1978,59 +2030,62 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-9300</v>
       </c>
       <c r="M27" s="3">
         <v>-9300</v>
       </c>
       <c r="N27" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
@@ -2049,8 +2104,11 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,35 +2412,35 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2404,59 +2474,62 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-9300</v>
       </c>
       <c r="M33" s="3">
         <v>-9300</v>
       </c>
       <c r="N33" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
@@ -2475,8 +2548,11 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,59 +2622,62 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-9300</v>
       </c>
       <c r="M35" s="3">
         <v>-9300</v>
       </c>
       <c r="N35" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
@@ -2617,84 +2696,90 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,58 +2833,59 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
+      <c r="S41" s="3">
+        <v>0</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>4</v>
@@ -2812,14 +2899,17 @@
       <c r="W41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
+      <c r="X41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2921,8 +3014,8 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -2933,12 +3026,12 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2954,14 +3047,17 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,29 +3127,32 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
       </c>
       <c r="H45" s="3">
+        <v>400</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -3061,31 +3160,31 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3102,61 +3201,64 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0</v>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
@@ -3173,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3182,7 +3287,7 @@
         <v>100</v>
       </c>
       <c r="E47" s="3">
-        <v>6800</v>
+        <v>100</v>
       </c>
       <c r="F47" s="3">
         <v>6800</v>
@@ -3191,7 +3296,7 @@
         <v>6800</v>
       </c>
       <c r="H47" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="I47" s="3">
         <v>6700</v>
@@ -3200,13 +3305,13 @@
         <v>6700</v>
       </c>
       <c r="K47" s="3">
-        <v>4200</v>
+        <v>6700</v>
       </c>
       <c r="L47" s="3">
         <v>4200</v>
       </c>
       <c r="M47" s="3">
-        <v>11300</v>
+        <v>4200</v>
       </c>
       <c r="N47" s="3">
         <v>11300</v>
@@ -3215,10 +3320,10 @@
         <v>11300</v>
       </c>
       <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
+        <v>11300</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
@@ -3226,8 +3331,8 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3244,19 +3349,22 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>1600</v>
@@ -3271,25 +3379,25 @@
         <v>1600</v>
       </c>
       <c r="K48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L48" s="3">
         <v>1500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1600</v>
       </c>
       <c r="P48" s="3">
         <v>1600</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>1600</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
@@ -3297,8 +3405,8 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3332,35 +3443,35 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>7900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>7900</v>
       </c>
       <c r="P49" s="3">
         <v>7900</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
+      <c r="Q49" s="3">
+        <v>7900</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
@@ -3368,8 +3479,8 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3572,17 +3692,17 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
+      <c r="T52" s="3">
+        <v>0</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,56 +3793,59 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7000</v>
-      </c>
-      <c r="F54" s="3">
-        <v>8800</v>
       </c>
       <c r="G54" s="3">
         <v>8800</v>
       </c>
       <c r="H54" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I54" s="3">
         <v>8700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>21000</v>
       </c>
       <c r="O54" s="3">
         <v>21000</v>
       </c>
       <c r="P54" s="3">
+        <v>21000</v>
+      </c>
+      <c r="Q54" s="3">
         <v>10100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,64 +3925,65 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3100</v>
+        <v>3700</v>
       </c>
       <c r="E57" s="3">
         <v>3100</v>
       </c>
       <c r="F57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G57" s="3">
         <v>4100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>600</v>
       </c>
       <c r="R57" s="3">
         <v>600</v>
       </c>
       <c r="S57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T57" s="3">
         <v>800</v>
       </c>
       <c r="U57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="V57" s="3">
         <v>700</v>
@@ -3866,56 +3997,59 @@
       <c r="Y57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="E58" s="3">
         <v>9000</v>
       </c>
       <c r="F58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G58" s="3">
         <v>10200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>900</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
@@ -3937,58 +4071,61 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
       </c>
       <c r="R59" s="3">
+        <v>400</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
-      </c>
-      <c r="S59" s="3">
-        <v>200</v>
       </c>
       <c r="T59" s="3">
         <v>200</v>
@@ -4008,55 +4145,58 @@
       <c r="Y59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E60" s="3">
         <v>13000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1000</v>
       </c>
       <c r="S60" s="3">
         <v>1000</v>
@@ -4077,15 +4217,18 @@
         <v>1000</v>
       </c>
       <c r="Y60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4100,32 +4243,32 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>7200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5500</v>
-      </c>
-      <c r="M61" s="3">
-        <v>7000</v>
       </c>
       <c r="N61" s="3">
         <v>7000</v>
       </c>
       <c r="O61" s="3">
+        <v>7000</v>
+      </c>
+      <c r="P61" s="3">
         <v>6800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4170,11 +4316,11 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -4194,8 +4340,8 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -4203,8 +4349,8 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
@@ -4215,14 +4361,17 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,55 +4589,58 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E66" s="3">
         <v>13000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1900</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1000</v>
       </c>
       <c r="S66" s="3">
         <v>1000</v>
@@ -4503,10 +4661,13 @@
         <v>1000</v>
       </c>
       <c r="Y66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4710,13 +4878,13 @@
         <v>500</v>
       </c>
       <c r="N70" s="3">
+        <v>500</v>
+      </c>
+      <c r="O70" s="3">
         <v>300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>200</v>
-      </c>
-      <c r="P70" s="3">
-        <v>100</v>
       </c>
       <c r="Q70" s="3">
         <v>100</v>
@@ -4725,7 +4893,7 @@
         <v>100</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,58 +4987,61 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-88200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-86200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-78800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-77800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-76100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-77300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-65800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-63100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-61700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-57400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-48100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-38800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-38100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-35100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-34000</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-33900</v>
       </c>
       <c r="T72" s="3">
         <v>-33900</v>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3">
         <v>-33900</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>-33900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,55 +5283,58 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-13500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-7400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-1000</v>
       </c>
       <c r="S76" s="3">
         <v>-1000</v>
@@ -5169,10 +5355,13 @@
         <v>-1000</v>
       </c>
       <c r="Y76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,135 +5431,141 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-9300</v>
       </c>
       <c r="M81" s="3">
         <v>-9300</v>
       </c>
       <c r="N81" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
@@ -5389,8 +5584,11 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5457,8 +5656,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
@@ -5469,8 +5668,8 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,56 +6056,59 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
@@ -5913,8 +6130,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5957,8 +6178,8 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -5969,11 +6190,11 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -5990,8 +6211,8 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6162,26 +6392,26 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>500</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -6189,17 +6419,17 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,59 +6778,62 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6606,50 +6852,53 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>100</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
       </c>
       <c r="L101" s="3">
+        <v>100</v>
+      </c>
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
@@ -6659,8 +6908,8 @@
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -6677,56 +6926,59 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -6746,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>CPMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,56 +1183,59 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1249,7 +1272,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1284,8 +1307,8 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
@@ -1296,8 +1319,8 @@
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,62 +1365,63 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
@@ -1413,8 +1440,11 @@
       <c r="Z17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,53 +1452,53 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
@@ -1487,8 +1517,11 @@
       <c r="Z18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,38 +1558,38 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-6800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1589,8 +1623,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,44 +1635,44 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1657,65 +1694,68 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2900</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>1200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>900</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1731,68 +1771,71 @@
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-9300</v>
       </c>
       <c r="N23" s="3">
         <v>-9300</v>
       </c>
       <c r="O23" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
@@ -1811,8 +1854,11 @@
       <c r="Z23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,62 +2008,65 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-9300</v>
       </c>
       <c r="N26" s="3">
         <v>-9300</v>
       </c>
       <c r="O26" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
@@ -2033,62 +2085,65 @@
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-9300</v>
       </c>
       <c r="N27" s="3">
         <v>-9300</v>
       </c>
       <c r="O27" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
@@ -2107,8 +2162,11 @@
       <c r="Z27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,38 +2482,38 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
         <v>6800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2477,62 +2547,65 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-9300</v>
       </c>
       <c r="N33" s="3">
         <v>-9300</v>
       </c>
       <c r="O33" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
@@ -2551,8 +2624,11 @@
       <c r="Z33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,62 +2701,65 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-9300</v>
       </c>
       <c r="N35" s="3">
         <v>-9300</v>
       </c>
       <c r="O35" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
@@ -2699,87 +2778,93 @@
       <c r="Z35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,61 +2920,62 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
+      <c r="T41" s="3">
+        <v>0</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>4</v>
@@ -2902,14 +2989,17 @@
       <c r="X41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3017,8 +3110,8 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -3029,12 +3122,12 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3050,14 +3143,17 @@
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,32 +3226,35 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>400</v>
       </c>
       <c r="H45" s="3">
         <v>400</v>
       </c>
       <c r="I45" s="3">
+        <v>400</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -3163,31 +3262,31 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3204,64 +3303,67 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U46" s="3">
-        <v>0</v>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3290,7 +3395,7 @@
         <v>100</v>
       </c>
       <c r="F47" s="3">
-        <v>6800</v>
+        <v>100</v>
       </c>
       <c r="G47" s="3">
         <v>6800</v>
@@ -3299,7 +3404,7 @@
         <v>6800</v>
       </c>
       <c r="I47" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="J47" s="3">
         <v>6700</v>
@@ -3308,13 +3413,13 @@
         <v>6700</v>
       </c>
       <c r="L47" s="3">
-        <v>4200</v>
+        <v>6700</v>
       </c>
       <c r="M47" s="3">
         <v>4200</v>
       </c>
       <c r="N47" s="3">
-        <v>11300</v>
+        <v>4200</v>
       </c>
       <c r="O47" s="3">
         <v>11300</v>
@@ -3323,10 +3428,10 @@
         <v>11300</v>
       </c>
       <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
+        <v>11300</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
@@ -3334,8 +3439,8 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3352,22 +3457,25 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E48" s="3">
         <v>5700</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>1600</v>
@@ -3382,25 +3490,25 @@
         <v>1600</v>
       </c>
       <c r="L48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M48" s="3">
         <v>1500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1600</v>
       </c>
       <c r="Q48" s="3">
         <v>1600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>1600</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
@@ -3408,8 +3516,8 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3446,35 +3557,35 @@
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>7900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8000</v>
-      </c>
-      <c r="P49" s="3">
-        <v>7900</v>
       </c>
       <c r="Q49" s="3">
         <v>7900</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
+      <c r="R49" s="3">
+        <v>7900</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>4</v>
@@ -3482,8 +3593,8 @@
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3695,17 +3815,17 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,59 +3919,62 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E54" s="3">
         <v>5900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>8800</v>
       </c>
       <c r="H54" s="3">
         <v>8800</v>
       </c>
       <c r="I54" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J54" s="3">
         <v>8700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22500</v>
-      </c>
-      <c r="O54" s="3">
-        <v>21000</v>
       </c>
       <c r="P54" s="3">
         <v>21000</v>
       </c>
       <c r="Q54" s="3">
+        <v>21000</v>
+      </c>
+      <c r="R54" s="3">
         <v>10100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,67 +4056,68 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>3100</v>
       </c>
       <c r="F57" s="3">
         <v>3100</v>
       </c>
       <c r="G57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H57" s="3">
         <v>4100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
-      </c>
-      <c r="R57" s="3">
-        <v>600</v>
       </c>
       <c r="S57" s="3">
         <v>600</v>
       </c>
       <c r="T57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="U57" s="3">
         <v>800</v>
       </c>
       <c r="V57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="W57" s="3">
         <v>700</v>
@@ -4000,59 +4131,62 @@
       <c r="Z57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E58" s="3">
         <v>9500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>9000</v>
       </c>
       <c r="F58" s="3">
         <v>9000</v>
       </c>
       <c r="G58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H58" s="3">
         <v>10200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>900</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
@@ -4074,61 +4208,64 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>400</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
       </c>
       <c r="S59" s="3">
+        <v>400</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
-      </c>
-      <c r="T59" s="3">
-        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>200</v>
@@ -4148,58 +4285,61 @@
       <c r="Z59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E60" s="3">
         <v>14600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1900</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1000</v>
       </c>
       <c r="T60" s="3">
         <v>1000</v>
@@ -4220,10 +4360,13 @@
         <v>1000</v>
       </c>
       <c r="Z60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4231,7 +4374,7 @@
         <v>5600</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4246,32 +4389,32 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>7200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5500</v>
-      </c>
-      <c r="N61" s="3">
-        <v>7000</v>
       </c>
       <c r="O61" s="3">
         <v>7000</v>
       </c>
       <c r="P61" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>6800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4319,11 +4465,11 @@
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -4343,8 +4489,8 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4352,8 +4498,8 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
@@ -4364,14 +4510,17 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,58 +4747,61 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E66" s="3">
         <v>20200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1900</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1000</v>
       </c>
       <c r="T66" s="3">
         <v>1000</v>
@@ -4664,10 +4822,13 @@
         <v>1000</v>
       </c>
       <c r="Z66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4881,13 +5049,13 @@
         <v>500</v>
       </c>
       <c r="O70" s="3">
+        <v>500</v>
+      </c>
+      <c r="P70" s="3">
         <v>300</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>200</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>100</v>
       </c>
       <c r="R70" s="3">
         <v>100</v>
@@ -4896,7 +5064,7 @@
         <v>100</v>
       </c>
       <c r="T70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U70" s="3">
         <v>0</v>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,61 +5161,64 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-88200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-86200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-78800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-77800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-76100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-77300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-65800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-63100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-61700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-57400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-48100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-38800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-38100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-37000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-35100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-34000</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-33900</v>
       </c>
       <c r="U72" s="3">
         <v>-33900</v>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3">
         <v>-33900</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>-33900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,58 +5469,61 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-14800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-13500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-7400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-9300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-1000</v>
       </c>
       <c r="T76" s="3">
         <v>-1000</v>
@@ -5358,10 +5544,13 @@
         <v>-1000</v>
       </c>
       <c r="Z76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,141 +5623,147 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-9300</v>
       </c>
       <c r="N81" s="3">
         <v>-9300</v>
       </c>
       <c r="O81" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
@@ -5587,8 +5782,11 @@
       <c r="Z81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,13 +5813,14 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5659,8 +5858,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
@@ -5671,8 +5870,8 @@
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,59 +6273,62 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6181,8 +6402,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -6193,11 +6414,11 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -6214,8 +6435,8 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6395,26 +6625,26 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>500</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -6422,17 +6652,17 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-700</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,62 +7024,65 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6864,44 +7113,44 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>100</v>
       </c>
       <c r="L101" s="3">
         <v>100</v>
       </c>
       <c r="M101" s="3">
+        <v>100</v>
+      </c>
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>4</v>
       </c>
@@ -6911,8 +7160,8 @@
       <c r="T101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="U101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -6929,59 +7178,62 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>CPMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,50 +1215,50 @@
         <v>200</v>
       </c>
       <c r="E14" s="3">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1275,7 +1298,7 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1310,8 +1333,8 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
@@ -1322,8 +1345,8 @@
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,65 +1392,66 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
@@ -1443,8 +1470,11 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,56 +1482,56 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
@@ -1520,8 +1550,11 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,41 +1592,41 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,47 +1672,47 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1697,68 +1734,71 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z21" s="3">
-        <v>0</v>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2900</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
         <v>1200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>900</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1774,71 +1814,74 @@
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-9300</v>
       </c>
       <c r="O23" s="3">
         <v>-9300</v>
       </c>
       <c r="P23" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
@@ -1857,8 +1900,11 @@
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,65 +2060,68 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-9300</v>
       </c>
       <c r="O26" s="3">
         <v>-9300</v>
       </c>
       <c r="P26" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
@@ -2088,65 +2140,68 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-9300</v>
       </c>
       <c r="O27" s="3">
         <v>-9300</v>
       </c>
       <c r="P27" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
@@ -2165,8 +2220,11 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,41 +2552,41 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2550,65 +2620,68 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-9300</v>
       </c>
       <c r="O33" s="3">
         <v>-9300</v>
       </c>
       <c r="P33" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
@@ -2627,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,65 +2780,68 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-9300</v>
       </c>
       <c r="O35" s="3">
         <v>-9300</v>
       </c>
       <c r="P35" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
@@ -2781,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2930,55 +3017,55 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
+      <c r="U41" s="3">
+        <v>0</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>4</v>
@@ -2992,14 +3079,17 @@
       <c r="Y41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3113,8 +3206,8 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -3125,12 +3218,12 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3146,14 +3239,17 @@
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z43" s="3">
-        <v>0</v>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,35 +3325,38 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>400</v>
       </c>
       <c r="I45" s="3">
         <v>400</v>
       </c>
       <c r="J45" s="3">
+        <v>400</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -3265,31 +3364,31 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>1900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3306,67 +3405,70 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V46" s="3">
-        <v>0</v>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3398,7 +3503,7 @@
         <v>100</v>
       </c>
       <c r="G47" s="3">
-        <v>6800</v>
+        <v>100</v>
       </c>
       <c r="H47" s="3">
         <v>6800</v>
@@ -3407,7 +3512,7 @@
         <v>6800</v>
       </c>
       <c r="J47" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="K47" s="3">
         <v>6700</v>
@@ -3416,13 +3521,13 @@
         <v>6700</v>
       </c>
       <c r="M47" s="3">
-        <v>4200</v>
+        <v>6700</v>
       </c>
       <c r="N47" s="3">
         <v>4200</v>
       </c>
       <c r="O47" s="3">
-        <v>11300</v>
+        <v>4200</v>
       </c>
       <c r="P47" s="3">
         <v>11300</v>
@@ -3431,10 +3536,10 @@
         <v>11300</v>
       </c>
       <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
+        <v>11300</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
@@ -3442,8 +3547,8 @@
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3460,25 +3565,28 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E48" s="3">
         <v>5600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5700</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>1600</v>
@@ -3493,25 +3601,25 @@
         <v>1600</v>
       </c>
       <c r="M48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N48" s="3">
         <v>1500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1600</v>
       </c>
       <c r="R48" s="3">
         <v>1600</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="S48" s="3">
+        <v>1600</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
@@ -3519,8 +3627,8 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3537,58 +3645,61 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>7900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>7900</v>
       </c>
       <c r="R49" s="3">
         <v>7900</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
+      <c r="S49" s="3">
+        <v>7900</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>4</v>
@@ -3596,8 +3707,8 @@
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,31 +3885,34 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3818,17 +3938,17 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
+      <c r="V52" s="3">
+        <v>0</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,62 +4045,65 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E54" s="3">
         <v>5800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>8800</v>
       </c>
       <c r="I54" s="3">
         <v>8800</v>
       </c>
       <c r="J54" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K54" s="3">
         <v>8700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22500</v>
-      </c>
-      <c r="P54" s="3">
-        <v>21000</v>
       </c>
       <c r="Q54" s="3">
         <v>21000</v>
       </c>
       <c r="R54" s="3">
+        <v>21000</v>
+      </c>
+      <c r="S54" s="3">
         <v>10100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>800</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,70 +4187,71 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E57" s="3">
         <v>4100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>3100</v>
       </c>
       <c r="G57" s="3">
         <v>3100</v>
       </c>
       <c r="H57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I57" s="3">
         <v>4100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
-      </c>
-      <c r="S57" s="3">
-        <v>600</v>
       </c>
       <c r="T57" s="3">
         <v>600</v>
       </c>
       <c r="U57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="V57" s="3">
         <v>800</v>
       </c>
       <c r="W57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="X57" s="3">
         <v>700</v>
@@ -4134,62 +4265,65 @@
       <c r="AA57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E58" s="3">
         <v>9400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>9000</v>
       </c>
       <c r="G58" s="3">
         <v>9000</v>
       </c>
       <c r="H58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I58" s="3">
         <v>10200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>900</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
@@ -4211,64 +4345,67 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
-      </c>
-      <c r="R59" s="3">
-        <v>400</v>
       </c>
       <c r="S59" s="3">
         <v>400</v>
       </c>
       <c r="T59" s="3">
+        <v>400</v>
+      </c>
+      <c r="U59" s="3">
         <v>300</v>
-      </c>
-      <c r="U59" s="3">
-        <v>200</v>
       </c>
       <c r="V59" s="3">
         <v>200</v>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4297,52 +4437,52 @@
         <v>14900</v>
       </c>
       <c r="E60" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F60" s="3">
         <v>14600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1900</v>
-      </c>
-      <c r="T60" s="3">
-        <v>1000</v>
       </c>
       <c r="U60" s="3">
         <v>1000</v>
@@ -4363,21 +4503,24 @@
         <v>1000</v>
       </c>
       <c r="AA60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="E61" s="3">
         <v>5600</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -4392,32 +4535,32 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>7200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5500</v>
-      </c>
-      <c r="O61" s="3">
-        <v>7000</v>
       </c>
       <c r="P61" s="3">
         <v>7000</v>
       </c>
       <c r="Q61" s="3">
+        <v>7000</v>
+      </c>
+      <c r="R61" s="3">
         <v>6800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6600</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4468,11 +4614,11 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -4492,8 +4638,8 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4501,8 +4647,8 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
@@ -4513,14 +4659,17 @@
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,61 +4905,64 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E66" s="3">
         <v>20500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1900</v>
-      </c>
-      <c r="T66" s="3">
-        <v>1000</v>
       </c>
       <c r="U66" s="3">
         <v>1000</v>
@@ -4825,10 +4983,13 @@
         <v>1000</v>
       </c>
       <c r="AA66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,13 +5175,16 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="E70" s="3">
         <v>500</v>
@@ -5052,13 +5220,13 @@
         <v>500</v>
       </c>
       <c r="P70" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q70" s="3">
         <v>300</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>200</v>
-      </c>
-      <c r="R70" s="3">
-        <v>100</v>
       </c>
       <c r="S70" s="3">
         <v>100</v>
@@ -5067,7 +5235,7 @@
         <v>100</v>
       </c>
       <c r="U70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V70" s="3">
         <v>0</v>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,64 +5335,67 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-91100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-89700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-88200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-86200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-78800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-77800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-76100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-77300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-65800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-63100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-61700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-57400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-48100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-38800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-38100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-37000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-35100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-34000</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-33900</v>
       </c>
       <c r="V72" s="3">
         <v>-33900</v>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3">
         <v>-33900</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-33900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,61 +5655,64 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-15200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-14800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-13500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-7400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-9300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-1000</v>
       </c>
       <c r="U76" s="3">
         <v>-1000</v>
@@ -5547,10 +5733,13 @@
         <v>-1000</v>
       </c>
       <c r="AA76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,147 +5815,153 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-9300</v>
       </c>
       <c r="O81" s="3">
         <v>-9300</v>
       </c>
       <c r="P81" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
@@ -5785,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,17 +6012,18 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
@@ -5861,8 +6060,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
@@ -5873,8 +6072,8 @@
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6285,53 +6502,53 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6405,8 +6626,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -6417,11 +6638,11 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -6438,8 +6659,8 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6628,26 +6858,26 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>500</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -6655,17 +6885,17 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-700</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7036,56 +7282,56 @@
         <v>400</v>
       </c>
       <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -7104,56 +7350,59 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>100</v>
       </c>
       <c r="M101" s="3">
         <v>100</v>
       </c>
       <c r="N101" s="3">
+        <v>100</v>
+      </c>
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
@@ -7163,8 +7412,8 @@
       <c r="U101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -7181,62 +7430,65 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>700</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>CPMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,122 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,8 +859,11 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,50 +1237,50 @@
         <v>200</v>
       </c>
       <c r="F14" s="3">
+        <v>200</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1286,13 +1305,16 @@
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>100</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1301,7 +1323,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1336,8 +1358,8 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>4</v>
@@ -1348,8 +1370,8 @@
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,68 +1418,69 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
@@ -1473,8 +1499,11 @@
       <c r="AB17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,59 +1511,59 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
@@ -1553,8 +1582,11 @@
       <c r="AB18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1615,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1595,41 +1628,41 @@
         <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1663,8 +1696,11 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1675,47 +1711,47 @@
         <v>-800</v>
       </c>
       <c r="F21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1737,71 +1773,74 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA21" s="3">
-        <v>0</v>
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2900</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
       <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
         <v>1200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>900</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1817,74 +1856,77 @@
       <c r="Z22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-9300</v>
       </c>
       <c r="P23" s="3">
         <v>-9300</v>
       </c>
       <c r="Q23" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
@@ -1903,8 +1945,11 @@
       <c r="AB23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,68 +2111,71 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-9300</v>
       </c>
       <c r="P26" s="3">
         <v>-9300</v>
       </c>
       <c r="Q26" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
@@ -2143,68 +2194,71 @@
       <c r="AB26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-9300</v>
       </c>
       <c r="P27" s="3">
         <v>-9300</v>
       </c>
       <c r="Q27" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
@@ -2223,8 +2277,11 @@
       <c r="AB27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2609,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2555,41 +2624,41 @@
         <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2623,68 +2692,71 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-9300</v>
       </c>
       <c r="P33" s="3">
         <v>-9300</v>
       </c>
       <c r="Q33" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
@@ -2703,8 +2775,11 @@
       <c r="AB33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,68 +2858,71 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-9300</v>
       </c>
       <c r="P35" s="3">
         <v>-9300</v>
       </c>
       <c r="Q35" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
@@ -2863,93 +2941,99 @@
       <c r="AB35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3093,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3020,55 +3106,55 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
+      <c r="V41" s="3">
+        <v>0</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>4</v>
@@ -3082,14 +3168,17 @@
       <c r="Z41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA41" s="3">
-        <v>0</v>
+      <c r="AA41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3257,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3209,8 +3301,8 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -3221,12 +3313,12 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3242,14 +3334,17 @@
       <c r="Z43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA43" s="3">
-        <v>0</v>
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3423,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3337,29 +3435,29 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>400</v>
       </c>
       <c r="J45" s="3">
         <v>400</v>
       </c>
       <c r="K45" s="3">
+        <v>400</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -3367,31 +3465,31 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>1900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3408,8 +3506,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3417,61 +3518,61 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W46" s="3">
-        <v>0</v>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X46" s="3">
         <v>0</v>
@@ -3488,8 +3589,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3506,7 +3610,7 @@
         <v>100</v>
       </c>
       <c r="H47" s="3">
-        <v>6800</v>
+        <v>100</v>
       </c>
       <c r="I47" s="3">
         <v>6800</v>
@@ -3515,7 +3619,7 @@
         <v>6800</v>
       </c>
       <c r="K47" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="L47" s="3">
         <v>6700</v>
@@ -3524,13 +3628,13 @@
         <v>6700</v>
       </c>
       <c r="N47" s="3">
-        <v>4200</v>
+        <v>6700</v>
       </c>
       <c r="O47" s="3">
         <v>4200</v>
       </c>
       <c r="P47" s="3">
-        <v>11300</v>
+        <v>4200</v>
       </c>
       <c r="Q47" s="3">
         <v>11300</v>
@@ -3539,10 +3643,10 @@
         <v>11300</v>
       </c>
       <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
+        <v>11300</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
@@ -3550,8 +3654,8 @@
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3568,8 +3672,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3577,19 +3684,19 @@
         <v>5200</v>
       </c>
       <c r="E48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F48" s="3">
         <v>5600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5700</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>1600</v>
@@ -3604,25 +3711,25 @@
         <v>1600</v>
       </c>
       <c r="N48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O48" s="3">
         <v>1500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1700</v>
-      </c>
-      <c r="R48" s="3">
-        <v>1600</v>
       </c>
       <c r="S48" s="3">
         <v>1600</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
+      <c r="T48" s="3">
+        <v>1600</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
@@ -3630,8 +3737,8 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
@@ -3648,8 +3755,11 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3678,31 +3788,31 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>7900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8000</v>
-      </c>
-      <c r="R49" s="3">
-        <v>7900</v>
       </c>
       <c r="S49" s="3">
         <v>7900</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
+      <c r="T49" s="3">
+        <v>7900</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>4</v>
@@ -3710,8 +3820,8 @@
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,16 +4004,19 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
@@ -3914,8 +4033,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3941,17 +4060,17 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
+      <c r="W52" s="3">
+        <v>0</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>4</v>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,8 +4170,11 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4057,56 +4182,56 @@
         <v>5400</v>
       </c>
       <c r="E54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F54" s="3">
         <v>5800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>8800</v>
       </c>
       <c r="J54" s="3">
         <v>8800</v>
       </c>
       <c r="K54" s="3">
+        <v>8800</v>
+      </c>
+      <c r="L54" s="3">
         <v>8700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22500</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>21000</v>
       </c>
       <c r="R54" s="3">
         <v>21000</v>
       </c>
       <c r="S54" s="3">
+        <v>21000</v>
+      </c>
+      <c r="T54" s="3">
         <v>10100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>800</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
       <c r="V54" s="3">
         <v>0</v>
       </c>
@@ -4128,8 +4253,11 @@
       <c r="AB54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,73 +4317,74 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E57" s="3">
         <v>4300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>3100</v>
       </c>
       <c r="H57" s="3">
         <v>3100</v>
       </c>
       <c r="I57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J57" s="3">
         <v>4100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
-      </c>
-      <c r="T57" s="3">
-        <v>600</v>
       </c>
       <c r="U57" s="3">
         <v>600</v>
       </c>
       <c r="V57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="W57" s="3">
         <v>800</v>
       </c>
       <c r="X57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Y57" s="3">
         <v>700</v>
@@ -4268,65 +4398,68 @@
       <c r="AB57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E58" s="3">
         <v>8800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>9000</v>
       </c>
       <c r="H58" s="3">
         <v>9000</v>
       </c>
       <c r="I58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J58" s="3">
         <v>10200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>900</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
@@ -4348,67 +4481,70 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
-      </c>
-      <c r="S59" s="3">
-        <v>400</v>
       </c>
       <c r="T59" s="3">
         <v>400</v>
       </c>
       <c r="U59" s="3">
+        <v>400</v>
+      </c>
+      <c r="V59" s="3">
         <v>300</v>
-      </c>
-      <c r="V59" s="3">
-        <v>200</v>
       </c>
       <c r="W59" s="3">
         <v>200</v>
@@ -4428,64 +4564,67 @@
       <c r="AB59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14900</v>
+        <v>17200</v>
       </c>
       <c r="E60" s="3">
         <v>14900</v>
       </c>
       <c r="F60" s="3">
+        <v>14900</v>
+      </c>
+      <c r="G60" s="3">
         <v>14600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1900</v>
-      </c>
-      <c r="U60" s="3">
-        <v>1000</v>
       </c>
       <c r="V60" s="3">
         <v>1000</v>
@@ -4506,24 +4645,27 @@
         <v>1000</v>
       </c>
       <c r="AB60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E61" s="3">
         <v>5500</v>
-      </c>
-      <c r="E61" s="3">
-        <v>5600</v>
       </c>
       <c r="F61" s="3">
         <v>5600</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4538,32 +4680,32 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>7200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5500</v>
-      </c>
-      <c r="P61" s="3">
-        <v>7000</v>
       </c>
       <c r="Q61" s="3">
         <v>7000</v>
       </c>
       <c r="R61" s="3">
+        <v>7000</v>
+      </c>
+      <c r="S61" s="3">
         <v>6800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6600</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4730,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4617,11 +4762,11 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -4641,8 +4786,8 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4650,8 +4795,8 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
+      <c r="W62" s="3">
+        <v>0</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>4</v>
@@ -4662,14 +4807,17 @@
       <c r="Z62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA62" s="3">
-        <v>0</v>
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,64 +5062,67 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E66" s="3">
         <v>20400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1900</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1000</v>
       </c>
       <c r="V66" s="3">
         <v>1000</v>
@@ -4986,10 +5143,13 @@
         <v>1000</v>
       </c>
       <c r="AB66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,16 +5342,19 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E70" s="3">
         <v>2500</v>
-      </c>
-      <c r="E70" s="3">
-        <v>500</v>
       </c>
       <c r="F70" s="3">
         <v>500</v>
@@ -5223,13 +5390,13 @@
         <v>500</v>
       </c>
       <c r="Q70" s="3">
+        <v>500</v>
+      </c>
+      <c r="R70" s="3">
         <v>300</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>200</v>
-      </c>
-      <c r="S70" s="3">
-        <v>100</v>
       </c>
       <c r="T70" s="3">
         <v>100</v>
@@ -5238,7 +5405,7 @@
         <v>100</v>
       </c>
       <c r="V70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W70" s="3">
         <v>0</v>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,67 +5508,70 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-94700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-91100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-89700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-88200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-86200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-78800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-77800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-76100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-77300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-65800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-63100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-61700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-57400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-48100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-38800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-38100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-37000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-35100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-34000</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-33900</v>
       </c>
       <c r="W72" s="3">
         <v>-33900</v>
@@ -5418,8 +5591,11 @@
       <c r="AB72" s="3">
         <v>-33900</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>-33900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,64 +5840,67 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-17500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-15200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-14800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-13500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-6900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-7400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-9300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-1000</v>
       </c>
       <c r="V76" s="3">
         <v>-1000</v>
@@ -5736,10 +5921,13 @@
         <v>-1000</v>
       </c>
       <c r="AB76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AC76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,153 +6006,159 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-9300</v>
       </c>
       <c r="P81" s="3">
         <v>-9300</v>
       </c>
       <c r="Q81" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
@@ -5983,8 +6177,11 @@
       <c r="AB81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,20 +6210,21 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -6063,8 +6261,8 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>4</v>
@@ -6075,8 +6273,8 @@
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,65 +6706,68 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
         <v>-300</v>
       </c>
       <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
@@ -6573,8 +6789,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6629,8 +6849,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -6641,11 +6861,11 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -6662,8 +6882,8 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,13 +7069,16 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -6861,26 +7090,26 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>500</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -6888,17 +7117,17 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-700</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,68 +7515,71 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>400</v>
       </c>
       <c r="F100" s="3">
+        <v>400</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -7353,59 +7598,62 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
-      </c>
-      <c r="M101" s="3">
-        <v>100</v>
       </c>
       <c r="N101" s="3">
         <v>100</v>
       </c>
       <c r="O101" s="3">
+        <v>100</v>
+      </c>
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>4</v>
       </c>
@@ -7415,8 +7663,8 @@
       <c r="V101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
+      <c r="W101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X101" s="3">
         <v>0</v>
@@ -7433,65 +7681,68 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>700</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -7511,6 +7762,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
   <si>
     <t>CPMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,134 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -862,8 +874,17 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -945,8 +966,17 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1058,17 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1098,11 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1184,17 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,71 +1276,80 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>400</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>7100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="S14" s="3">
         <v>7000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="T14" s="3">
         <v>5800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1308,13 +1368,22 @@
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1326,13 +1395,13 @@
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1361,26 +1430,26 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
@@ -1391,8 +1460,17 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,77 +1497,80 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3200</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>9000</v>
       </c>
       <c r="M17" s="3">
         <v>1500</v>
       </c>
       <c r="N17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>8000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>6400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="Y17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
       <c r="Z17" s="3">
         <v>0</v>
       </c>
@@ -1502,8 +1583,17 @@
       <c r="AC17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1511,68 +1601,68 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-9000</v>
       </c>
       <c r="M18" s="3">
         <v>-1500</v>
       </c>
       <c r="N18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-2600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-6400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
         <v>0</v>
       </c>
@@ -1585,8 +1675,17 @@
       <c r="AC18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1715,11 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1625,53 +1727,53 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>-6800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1699,8 +1801,17 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1708,59 +1819,59 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H21" s="3">
         <v>-800</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-7100</v>
       </c>
       <c r="I21" s="3">
         <v>-800</v>
       </c>
       <c r="J21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>-10900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-2300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-3500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>-6400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1776,80 +1887,89 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
       </c>
       <c r="F22" s="3">
+        <v>500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>800</v>
+      </c>
+      <c r="H22" s="3">
+        <v>400</v>
+      </c>
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="Q22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="S22" s="3">
         <v>1400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="T22" s="3">
         <v>2900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="W22" s="3">
         <v>1200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="X22" s="3">
         <v>900</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1859,14 +1979,23 @@
       <c r="AA22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1874,68 +2003,68 @@
         <v>4</v>
       </c>
       <c r="E23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-7300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-11600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-4200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-9300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>-1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="X23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
         <v>0</v>
       </c>
@@ -1948,8 +2077,17 @@
       <c r="AC23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2169,17 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,8 +2261,17 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2123,68 +2279,68 @@
         <v>4</v>
       </c>
       <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-7300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-11600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-4200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-9300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>-1900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="X26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
         <v>0</v>
       </c>
@@ -2197,8 +2353,17 @@
       <c r="AC26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2206,68 +2371,68 @@
         <v>4</v>
       </c>
       <c r="E27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-7300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-11600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-9300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>-1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2445,17 @@
       <c r="AC27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2537,17 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2629,17 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2721,17 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2813,17 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2621,53 +2831,53 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>6800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2695,8 +2905,17 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,68 +2923,68 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-7300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-11600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-9300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>-1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
         <v>0</v>
       </c>
@@ -2778,8 +2997,17 @@
       <c r="AC33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,8 +3089,17 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2870,68 +3107,68 @@
         <v>4</v>
       </c>
       <c r="E35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-7300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-11600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-9300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>-1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
         <v>0</v>
       </c>
@@ -2944,96 +3181,114 @@
       <c r="AC35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3318,11 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,8 +3352,11 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3109,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -3124,46 +3385,46 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
+        <v>200</v>
+      </c>
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="X41" s="3">
         <v>700</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>4</v>
+      <c r="Y41" s="3">
+        <v>0</v>
       </c>
       <c r="Z41" s="3" t="s">
         <v>4</v>
@@ -3171,14 +3432,23 @@
       <c r="AA41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,13 +3530,22 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -3304,30 +3583,30 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3337,14 +3616,23 @@
       <c r="AA43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,79 +3714,88 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>1900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="T45" s="3">
         <v>1300</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>0</v>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
@@ -3509,8 +3806,17 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3518,70 +3824,70 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1900</v>
-      </c>
       <c r="Q46" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
       <c r="S46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="X46" s="3">
         <v>800</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-      <c r="W46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0</v>
+      <c r="Z46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA46" s="3">
         <v>0</v>
@@ -3592,19 +3898,28 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>100</v>
@@ -3613,58 +3928,58 @@
         <v>100</v>
       </c>
       <c r="I47" s="3">
+        <v>100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>100</v>
+      </c>
+      <c r="K47" s="3">
+        <v>100</v>
+      </c>
+      <c r="L47" s="3">
         <v>6800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>6800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>6800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>6700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>6700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="Q47" s="3">
         <v>6700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="R47" s="3">
         <v>4200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="S47" s="3">
         <v>4200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="T47" s="3">
         <v>11300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="U47" s="3">
         <v>11300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="V47" s="3">
         <v>11300</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
@@ -3675,37 +3990,46 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F48" s="3">
         <v>5200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I48" s="3">
         <v>5600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>5700</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1600</v>
-      </c>
       <c r="K48" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>1600</v>
@@ -3714,40 +4038,40 @@
         <v>1600</v>
       </c>
       <c r="O48" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="P48" s="3">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="Q48" s="3">
         <v>1600</v>
       </c>
       <c r="R48" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="S48" s="3">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="T48" s="3">
         <v>1600</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>0</v>
+      <c r="U48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA48" s="3">
         <v>0</v>
@@ -3758,8 +4082,17 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3791,46 +4124,46 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <v>7900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="Q49" s="3">
         <v>7800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="R49" s="3">
         <v>7500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="S49" s="3">
         <v>8200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="T49" s="3">
         <v>8100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="U49" s="3">
         <v>8000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="V49" s="3">
         <v>7900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="W49" s="3">
         <v>7900</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>0</v>
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA49" s="3">
         <v>0</v>
@@ -3841,8 +4174,17 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4266,17 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,25 +4358,34 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -4036,14 +4396,14 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -4063,8 +4423,8 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -4075,11 +4435,11 @@
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>4</v>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>4</v>
@@ -4090,8 +4450,17 @@
       <c r="AC52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,74 +4542,83 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G54" s="3">
         <v>5400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>5400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>5800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>5900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>7000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>8800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>8800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>8700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>16400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>16000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>13300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>16000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>22500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>21000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>21000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>10100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
         <v>800</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
       <c r="Y54" s="3">
         <v>0</v>
       </c>
@@ -4256,8 +4634,17 @@
       <c r="AC54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4674,11 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,82 +4708,85 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G57" s="3">
         <v>6900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>4300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>4100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>3700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>4100</v>
       </c>
       <c r="K57" s="3">
         <v>3100</v>
       </c>
       <c r="L57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="V57" s="3">
         <v>900</v>
-      </c>
-      <c r="T57" s="3">
-        <v>800</v>
-      </c>
-      <c r="U57" s="3">
-        <v>600</v>
-      </c>
-      <c r="V57" s="3">
-        <v>600</v>
       </c>
       <c r="W57" s="3">
         <v>800</v>
       </c>
       <c r="X57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z57" s="3">
         <v>800</v>
       </c>
-      <c r="Y57" s="3">
-        <v>700</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>700</v>
-      </c>
       <c r="AA57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AB57" s="3">
         <v>700</v>
@@ -4401,74 +4794,83 @@
       <c r="AC57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>700</v>
+      </c>
+      <c r="AF57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G58" s="3">
         <v>8900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>8800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>9400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>9500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>9000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>9000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>10200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>10300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>10000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>3100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>2900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>2300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>3800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>1300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="V58" s="3">
         <v>500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="W58" s="3">
         <v>2600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="X58" s="3">
         <v>900</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
       <c r="Y58" s="3">
         <v>0</v>
       </c>
@@ -4484,76 +4886,85 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>4700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>3100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>2100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>1900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="Y59" s="3">
         <v>300</v>
-      </c>
-      <c r="W59" s="3">
-        <v>200</v>
-      </c>
-      <c r="X59" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>200</v>
       </c>
       <c r="Z59" s="3">
         <v>200</v>
@@ -4567,73 +4978,82 @@
       <c r="AC59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>19700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>17800</v>
+      </c>
+      <c r="G60" s="3">
         <v>17200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>14900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>14900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>14600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>13000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>13300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>15200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>15600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>17500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>7800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>6400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>5400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>5700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>2900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>2200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>1900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>3800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="X60" s="3">
         <v>1900</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="W60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="X60" s="3">
-        <v>1000</v>
       </c>
       <c r="Y60" s="3">
         <v>1000</v>
@@ -4648,18 +5068,27 @@
         <v>1000</v>
       </c>
       <c r="AC60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AF60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="F61" s="3">
         <v>5600</v>
@@ -4668,13 +5097,13 @@
         <v>5600</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -4683,38 +5112,38 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>7200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="Q61" s="3">
         <v>6900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="R61" s="3">
         <v>6700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="S61" s="3">
         <v>5500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="T61" s="3">
         <v>7000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="U61" s="3">
         <v>7000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="V61" s="3">
         <v>6800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="W61" s="3">
         <v>6600</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4733,8 +5162,17 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4747,8 +5185,8 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -4765,8 +5203,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -4774,8 +5212,8 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -4789,35 +5227,44 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z62" s="3" t="s">
-        <v>4</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB62" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5346,17 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5438,17 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,73 +5530,82 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>25500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>23500</v>
+      </c>
+      <c r="G66" s="3">
         <v>22800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>20400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>20500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>20200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>13000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>13300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>15200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>15600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>17500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>15000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>13300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>12000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>11200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>9900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>9300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>8800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>10400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>1900</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="W66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="X66" s="3">
-        <v>1000</v>
       </c>
       <c r="Y66" s="3">
         <v>1000</v>
@@ -5146,10 +5620,19 @@
         <v>1000</v>
       </c>
       <c r="AC66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AF66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5662,11 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5748,17 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,25 +5840,34 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E70" s="3">
         <v>2500</v>
       </c>
       <c r="F70" s="3">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G70" s="3">
-        <v>500</v>
+        <v>2600</v>
       </c>
       <c r="H70" s="3">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="I70" s="3">
         <v>500</v>
@@ -5393,29 +5897,29 @@
         <v>500</v>
       </c>
       <c r="R70" s="3">
+        <v>500</v>
+      </c>
+      <c r="S70" s="3">
+        <v>500</v>
+      </c>
+      <c r="T70" s="3">
+        <v>500</v>
+      </c>
+      <c r="U70" s="3">
         <v>300</v>
       </c>
-      <c r="S70" s="3">
+      <c r="V70" s="3">
         <v>200</v>
       </c>
-      <c r="T70" s="3">
+      <c r="W70" s="3">
         <v>100</v>
       </c>
-      <c r="U70" s="3">
+      <c r="X70" s="3">
         <v>100</v>
       </c>
-      <c r="V70" s="3">
+      <c r="Y70" s="3">
         <v>100</v>
       </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
-      <c r="X70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="3">
-        <v>0</v>
-      </c>
       <c r="Z70" s="3">
         <v>0</v>
       </c>
@@ -5428,8 +5932,17 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,76 +6024,85 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-94700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-91100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-89700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-88200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-86200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-78800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-77800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-76100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-77300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-65800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-63100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-61700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-57400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-48100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-38800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-38100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-37000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>-35100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>-34000</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-33900</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-33900</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-33900</v>
       </c>
       <c r="Z72" s="3">
         <v>-33900</v>
@@ -5594,8 +6116,17 @@
       <c r="AC72" s="3">
         <v>-33900</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="AE72" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="AF72" s="3">
+        <v>-33900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6208,17 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6300,17 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,73 +6392,82 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="G76" s="3">
         <v>-19900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-17500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-15200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-14800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-13500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-6800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-6900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-7400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-9300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>2200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>4300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>12100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>11400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>12000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>-300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-1000</v>
       </c>
       <c r="Y76" s="3">
         <v>-1000</v>
@@ -5924,10 +6482,19 @@
         <v>-1000</v>
       </c>
       <c r="AC76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AE76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AF76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,96 +6576,114 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6106,68 +6691,68 @@
         <v>4</v>
       </c>
       <c r="E81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-7300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-11600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-9300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>-1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
         <v>0</v>
       </c>
@@ -6180,8 +6765,17 @@
       <c r="AC81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,29 +6805,32 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -6264,26 +6861,26 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>0</v>
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA83" s="3">
         <v>0</v>
@@ -6294,8 +6891,17 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6983,17 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +7075,17 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +7167,17 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7259,17 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,19 +7351,28 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-400</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F89" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="G89" s="3">
         <v>-400</v>
@@ -6730,53 +7381,53 @@
         <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>-2300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
@@ -6792,8 +7443,17 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,13 +7483,16 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -6852,20 +7515,20 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -6873,8 +7536,8 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
@@ -6885,14 +7548,14 @@
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -6906,8 +7569,17 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7661,17 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,16 +7753,25 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>200</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -7093,50 +7783,50 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>500</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="W94" s="3">
         <v>-700</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
@@ -7155,8 +7845,17 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7885,11 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7971,17 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +8063,17 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +8155,17 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +8247,17 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7527,67 +8265,67 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>500</v>
+      </c>
+      <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
-      </c>
-      <c r="F100" s="3">
-        <v>400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>200</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
       </c>
       <c r="J100" s="3">
+        <v>500</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>400</v>
+      </c>
+      <c r="M100" s="3">
+        <v>200</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="T100" s="3">
         <v>2400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
-      </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
-      <c r="T100" s="3">
-        <v>1200</v>
-      </c>
-      <c r="U100" s="3">
-        <v>800</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z100" s="3">
         <v>0</v>
@@ -7601,79 +8339,88 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>0</v>
+      <c r="X101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA101" s="3">
         <v>0</v>
@@ -7684,8 +8431,17 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7696,62 +8452,62 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-300</v>
-      </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>200</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-100</v>
       </c>
       <c r="O102" s="3">
         <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="X102" s="3">
         <v>700</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
@@ -7765,6 +8521,15 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
